--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3004.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3004.xlsx
@@ -354,7 +354,7 @@
         <v>2.425891109953485</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.304202741433954</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3004.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3004.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177900831816621</v>
+        <v>1.389366030693054</v>
       </c>
       <c r="B1">
-        <v>2.425891109953485</v>
+        <v>1.566517472267151</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.911339044570923</v>
       </c>
       <c r="D1">
-        <v>2.304202741433954</v>
+        <v>2.608289957046509</v>
       </c>
       <c r="E1">
-        <v>1.200875052833353</v>
+        <v>6.794198989868164</v>
       </c>
     </row>
   </sheetData>
